--- a/向思思/项目进程.xlsx
+++ b/向思思/项目进程.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peipei\Desktop\向思思\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659A1B44-47B9-4458-9CA5-70EB89CD7294}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464E5046-AE6C-4919-BFE3-C264B901C431}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3D0737B6-8C0C-43D9-9B57-4F0CDF798247}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D0737B6-8C0C-43D9-9B57-4F0CDF798247}"/>
   </bookViews>
   <sheets>
     <sheet name="飞鱼快船" sheetId="1" r:id="rId1"/>
     <sheet name="结算 " sheetId="5" r:id="rId2"/>
-    <sheet name="货盘管家" sheetId="6" r:id="rId3"/>
-    <sheet name="货主管理平台" sheetId="2" r:id="rId4"/>
-    <sheet name="货管小程序" sheetId="3" r:id="rId5"/>
-    <sheet name="数据平台" sheetId="4" r:id="rId6"/>
+    <sheet name="资产包" sheetId="7" r:id="rId3"/>
+    <sheet name="数据平台" sheetId="4" r:id="rId4"/>
+    <sheet name="货盘管家" sheetId="6" r:id="rId5"/>
+    <sheet name="货主管理平台" sheetId="2" r:id="rId6"/>
+    <sheet name="货管小程序" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
   <si>
     <t>飞鱼快船</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,7 +363,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正服测试</t>
+    <t>增加订单状态-待发送、已驳回、已生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加可重复申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加驳回状态验证，驳回3次后不可再发送申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表：已驳回-增加【驳回次数】显示，已生效增加【申请时间】字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度度分秒换成数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>czy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正服测试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加页面搜索（船东、货主、船舶、港口列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改项：s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提测接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.11-5pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提测接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.10.12pm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发修改中，下周继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发修改中，下周继续修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.9.11接口交付，前端开发进行中，2019.10.12测试完成1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口1，前端开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付,前端开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口交付，前端开发中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口测试1 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +501,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -437,12 +559,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,9 +616,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84ABF1F-A0C1-44F0-8F60-50CFE0C7986E}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -816,7 +960,7 @@
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
@@ -846,6 +990,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -860,6 +1007,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
@@ -874,6 +1022,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -888,6 +1037,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -902,6 +1052,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -916,6 +1067,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
@@ -938,7 +1090,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -947,30 +1099,72 @@
       <c r="C11" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A12" s="19"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="19"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -979,16 +1173,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69088177-30EC-43B1-85C9-8ADF397D11AD}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="52.25" customWidth="1"/>
-    <col min="4" max="4" width="45.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1088,6 +1283,9 @@
       <c r="C9" t="s">
         <v>54</v>
       </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1099,6 +1297,9 @@
       <c r="C10" t="s">
         <v>61</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1109,6 +1310,41 @@
       </c>
       <c r="C11" t="s">
         <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1119,11 +1355,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C829ED-B847-4C6A-AFFC-BCAEE8324A84}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="69.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E14AE9-C970-47BD-9762-EAEA41F9151C}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F124157E-0298-4E5E-82B5-19A3A3AB4665}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ADDD58-D496-4DD6-8FBA-159E0BEFEB6E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1277,12 +1728,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7195172-86E9-4BB6-8D2E-BA64614C40F0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1357,122 +1808,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E14AE9-C970-47BD-9762-EAEA41F9151C}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="31.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>